--- a/results/20250402/evaluation_chd_49_noisy_0.1.xlsx
+++ b/results/20250402/evaluation_chd_49_noisy_0.1.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5416</v>
+        <v>0.50186</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02794</v>
+        <v>0.01897</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.1618</v>
+        <v>0.0818</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04017</v>
+        <v>0.0222</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.46784</v>
+        <v>0.45571</v>
       </c>
       <c r="I28" t="n">
-        <v>0.03316</v>
+        <v>0.01965</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.00324</v>
+        <v>0.00144</v>
       </c>
       <c r="I29" t="n">
-        <v>0.00563</v>
+        <v>0.00417</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.54225</v>
+        <v>0.50222</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02872</v>
+        <v>0.02009</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.16072</v>
+        <v>0.08072</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03928</v>
+        <v>0.02169</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.44418</v>
+        <v>0.45148</v>
       </c>
       <c r="I32" t="n">
-        <v>0.04104</v>
+        <v>0.02034</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0018</v>
+        <v>0.00144</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00441</v>
+        <v>0.00417</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.48014</v>
+        <v>0.5634400000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02488</v>
+        <v>0.01191</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.06703000000000001</v>
+        <v>0.00865</v>
       </c>
       <c r="I35" t="n">
-        <v>0.03343</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.46239</v>
+        <v>0.56413</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01969</v>
+        <v>0.01178</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.03279</v>
+        <v>0.00937</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01939</v>
+        <v>0.008630000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.48231</v>
+        <v>0.56336</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02478</v>
+        <v>0.01185</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.07027</v>
+        <v>0.00865</v>
       </c>
       <c r="I39" t="n">
-        <v>0.03512</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.46217</v>
+        <v>0.56408</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0191</v>
+        <v>0.0116</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.03099</v>
+        <v>0.00937</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01975</v>
+        <v>0.008630000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.55582</v>
+        <v>0.47356</v>
       </c>
       <c r="I66" t="n">
-        <v>0.0301</v>
+        <v>0.02153</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.19171</v>
+        <v>0.05117</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03395</v>
+        <v>0.02173</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.45797</v>
+        <v>0.4393</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02553</v>
+        <v>0.02021</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.0245</v>
+        <v>0.00108</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01581</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.55426</v>
+        <v>0.47375</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02978</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.18667</v>
+        <v>0.05225</v>
       </c>
       <c r="I71" t="n">
-        <v>0.02933</v>
+        <v>0.02039</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.42871</v>
+        <v>0.43313</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02997</v>
+        <v>0.02316</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.01405</v>
+        <v>0.00396</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01142</v>
+        <v>0.00628</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.53093</v>
+        <v>0.53696</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02093</v>
+        <v>0.01659</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.14559</v>
+        <v>0.00937</v>
       </c>
       <c r="I75" t="n">
-        <v>0.03628</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.47186</v>
+        <v>0.5439000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02059</v>
+        <v>0.01761</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.05802</v>
+        <v>0.01622</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02405</v>
+        <v>0.01168</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.53095</v>
+        <v>0.53706</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01883</v>
+        <v>0.01689</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.14595</v>
+        <v>0.00937</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03567</v>
+        <v>0.00825</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.46861</v>
+        <v>0.54508</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01768</v>
+        <v>0.01855</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.05189</v>
+        <v>0.01694</v>
       </c>
       <c r="I81" t="n">
-        <v>0.02513</v>
+        <v>0.01177</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.5569</v>
+        <v>0.49091</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03697</v>
+        <v>0.01657</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.18306</v>
+        <v>0.06955</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05195</v>
+        <v>0.02384</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.46676</v>
+        <v>0.44778</v>
       </c>
       <c r="I108" t="n">
-        <v>0.02943</v>
+        <v>0.01755</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.01081</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.5562</v>
+        <v>0.48968</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03762</v>
+        <v>0.01763</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.18306</v>
+        <v>0.07063</v>
       </c>
       <c r="I111" t="n">
-        <v>0.05094</v>
+        <v>0.02492</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.43495</v>
+        <v>0.44173</v>
       </c>
       <c r="I112" t="n">
-        <v>0.03407</v>
+        <v>0.01855</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.00685</v>
+        <v>0.00108</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01119</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.49982</v>
+        <v>0.5527</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0284</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.09838</v>
+        <v>0.01153</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0377</v>
+        <v>0.00826</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.46938</v>
+        <v>0.55493</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02724</v>
+        <v>0.01347</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.05225</v>
+        <v>0.01297</v>
       </c>
       <c r="I117" t="n">
-        <v>0.03089</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.50071</v>
+        <v>0.55267</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02967</v>
+        <v>0.01151</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.09982000000000001</v>
+        <v>0.01153</v>
       </c>
       <c r="I119" t="n">
-        <v>0.03922</v>
+        <v>0.00826</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.46878</v>
+        <v>0.55438</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02718</v>
+        <v>0.01295</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.04973</v>
+        <v>0.01297</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0285</v>
+        <v>0.00848</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.57941</v>
+        <v>0.45761</v>
       </c>
       <c r="I146" t="n">
-        <v>0.03186</v>
+        <v>0.01363</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.22126</v>
+        <v>0.04252</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04795</v>
+        <v>0.01829</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.46414</v>
+        <v>0.42422</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02963</v>
+        <v>0.01622</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.0364</v>
+        <v>0.00072</v>
       </c>
       <c r="I149" t="n">
-        <v>0.02654</v>
+        <v>0.00244</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.57744</v>
+        <v>0.45886</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03293</v>
+        <v>0.01557</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.2191</v>
+        <v>0.04432</v>
       </c>
       <c r="I151" t="n">
-        <v>0.0488</v>
+        <v>0.01871</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.42604</v>
+        <v>0.42275</v>
       </c>
       <c r="I152" t="n">
-        <v>0.03424</v>
+        <v>0.02211</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.01766</v>
+        <v>0.00324</v>
       </c>
       <c r="I153" t="n">
-        <v>0.01601</v>
+        <v>0.00563</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.54844</v>
+        <v>0.52223</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03664</v>
+        <v>0.01814</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.1791</v>
+        <v>0.00829</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05762</v>
+        <v>0.00717</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.47503</v>
+        <v>0.52829</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03492</v>
+        <v>0.01609</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.07459</v>
+        <v>0.01153</v>
       </c>
       <c r="I157" t="n">
-        <v>0.0416</v>
+        <v>0.00744</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.54917</v>
+        <v>0.5219</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03645</v>
+        <v>0.01816</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.17946</v>
+        <v>0.00829</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05754</v>
+        <v>0.00717</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.47416</v>
+        <v>0.52915</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03458</v>
+        <v>0.01658</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.07027</v>
+        <v>0.01225</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03736</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
   </sheetData>
